--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Adam17-Itga5.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Adam17-Itga5.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>33.47808166666666</v>
+        <v>8.771609</v>
       </c>
       <c r="H2">
-        <v>100.434245</v>
+        <v>26.314827</v>
       </c>
       <c r="I2">
-        <v>0.4880542983452504</v>
+        <v>0.2200338127677125</v>
       </c>
       <c r="J2">
-        <v>0.4880542983452505</v>
+        <v>0.2200338127677125</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>28.72417333333333</v>
+        <v>10.34761366666667</v>
       </c>
       <c r="N2">
-        <v>86.17251999999999</v>
+        <v>31.042841</v>
       </c>
       <c r="O2">
-        <v>0.4233259107972328</v>
+        <v>0.2299953477621856</v>
       </c>
       <c r="P2">
-        <v>0.4233259107972328</v>
+        <v>0.2299953477621856</v>
       </c>
       <c r="Q2">
-        <v>961.6302206608219</v>
+        <v>90.76522116705632</v>
       </c>
       <c r="R2">
-        <v>8654.671985947398</v>
+        <v>816.886990503507</v>
       </c>
       <c r="S2">
-        <v>0.2066060303655075</v>
+        <v>0.05060675328694966</v>
       </c>
       <c r="T2">
-        <v>0.2066060303655076</v>
+        <v>0.05060675328694967</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>33.47808166666666</v>
+        <v>8.771609</v>
       </c>
       <c r="H3">
-        <v>100.434245</v>
+        <v>26.314827</v>
       </c>
       <c r="I3">
-        <v>0.4880542983452504</v>
+        <v>0.2200338127677125</v>
       </c>
       <c r="J3">
-        <v>0.4880542983452505</v>
+        <v>0.2200338127677125</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>91.709587</v>
       </c>
       <c r="O3">
-        <v>0.4505269713084062</v>
+        <v>0.6794731949692173</v>
       </c>
       <c r="P3">
-        <v>0.4505269713084062</v>
+        <v>0.6794731949692174</v>
       </c>
       <c r="Q3">
-        <v>1023.42034773409</v>
+        <v>268.1468795718276</v>
       </c>
       <c r="R3">
-        <v>9210.783129606814</v>
+        <v>2413.321916146449</v>
       </c>
       <c r="S3">
-        <v>0.219881624867535</v>
+        <v>0.1495070777625362</v>
       </c>
       <c r="T3">
-        <v>0.219881624867535</v>
+        <v>0.1495070777625362</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>33.47808166666666</v>
+        <v>8.771609</v>
       </c>
       <c r="H4">
-        <v>100.434245</v>
+        <v>26.314827</v>
       </c>
       <c r="I4">
-        <v>0.4880542983452504</v>
+        <v>0.2200338127677125</v>
       </c>
       <c r="J4">
-        <v>0.4880542983452505</v>
+        <v>0.2200338127677125</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.559531999999999</v>
+        <v>4.073058666666666</v>
       </c>
       <c r="N4">
-        <v>25.678596</v>
+        <v>12.219176</v>
       </c>
       <c r="O4">
-        <v>0.126147117894361</v>
+        <v>0.09053145726859702</v>
       </c>
       <c r="P4">
-        <v>0.126147117894361</v>
+        <v>0.09053145726859703</v>
       </c>
       <c r="Q4">
-        <v>286.5567113244466</v>
+        <v>35.72727805806133</v>
       </c>
       <c r="R4">
-        <v>2579.01040192002</v>
+        <v>321.545502522552</v>
       </c>
       <c r="S4">
-        <v>0.06156664311220793</v>
+        <v>0.01991998171822664</v>
       </c>
       <c r="T4">
-        <v>0.06156664311220794</v>
+        <v>0.01991998171822664</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>69.74328800000001</v>
       </c>
       <c r="I5">
-        <v>0.3389134003957588</v>
+        <v>0.583164828467109</v>
       </c>
       <c r="J5">
-        <v>0.3389134003957588</v>
+        <v>0.583164828467109</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>28.72417333333333</v>
+        <v>10.34761366666667</v>
       </c>
       <c r="N5">
-        <v>86.17251999999999</v>
+        <v>31.042841</v>
       </c>
       <c r="O5">
-        <v>0.4233259107972328</v>
+        <v>0.2299953477621856</v>
       </c>
       <c r="P5">
-        <v>0.4233259107972328</v>
+        <v>0.2299953477621856</v>
       </c>
       <c r="Q5">
-        <v>667.7727644495289</v>
+        <v>240.5588666890231</v>
       </c>
       <c r="R5">
-        <v>6009.95488004576</v>
+        <v>2165.029800201208</v>
       </c>
       <c r="S5">
-        <v>0.1434708239039218</v>
+        <v>0.134125197525968</v>
       </c>
       <c r="T5">
-        <v>0.1434708239039218</v>
+        <v>0.134125197525968</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>69.74328800000001</v>
       </c>
       <c r="I6">
-        <v>0.3389134003957588</v>
+        <v>0.583164828467109</v>
       </c>
       <c r="J6">
-        <v>0.3389134003957588</v>
+        <v>0.583164828467109</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>91.709587</v>
       </c>
       <c r="O6">
-        <v>0.4505269713084062</v>
+        <v>0.6794731949692173</v>
       </c>
       <c r="P6">
-        <v>0.4505269713084062</v>
+        <v>0.6794731949692174</v>
       </c>
       <c r="Q6">
         <v>710.6809042780063</v>
@@ -818,10 +818,10 @@
         <v>6396.128138502057</v>
       </c>
       <c r="S6">
-        <v>0.1526896278161344</v>
+        <v>0.3962448691922222</v>
       </c>
       <c r="T6">
-        <v>0.1526896278161344</v>
+        <v>0.3962448691922222</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>69.74328800000001</v>
       </c>
       <c r="I7">
-        <v>0.3389134003957588</v>
+        <v>0.583164828467109</v>
       </c>
       <c r="J7">
-        <v>0.3389134003957588</v>
+        <v>0.583164828467109</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>8.559531999999999</v>
+        <v>4.073058666666666</v>
       </c>
       <c r="N7">
-        <v>25.678596</v>
+        <v>12.219176</v>
       </c>
       <c r="O7">
-        <v>0.126147117894361</v>
+        <v>0.09053145726859702</v>
       </c>
       <c r="P7">
-        <v>0.126147117894361</v>
+        <v>0.09053145726859703</v>
       </c>
       <c r="Q7">
-        <v>198.9899684737387</v>
+        <v>94.68950121007646</v>
       </c>
       <c r="R7">
-        <v>1790.909716263648</v>
+        <v>852.2055108906881</v>
       </c>
       <c r="S7">
-        <v>0.04275294867570255</v>
+        <v>0.05279476174891879</v>
       </c>
       <c r="T7">
-        <v>0.04275294867570255</v>
+        <v>0.0527947617489188</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>11.86914966666667</v>
+        <v>7.845451333333334</v>
       </c>
       <c r="H8">
-        <v>35.607449</v>
+        <v>23.536354</v>
       </c>
       <c r="I8">
-        <v>0.1730323012589908</v>
+        <v>0.1968013587651783</v>
       </c>
       <c r="J8">
-        <v>0.1730323012589908</v>
+        <v>0.1968013587651783</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>28.72417333333333</v>
+        <v>10.34761366666667</v>
       </c>
       <c r="N8">
-        <v>86.17251999999999</v>
+        <v>31.042841</v>
       </c>
       <c r="O8">
-        <v>0.4233259107972328</v>
+        <v>0.2299953477621856</v>
       </c>
       <c r="P8">
-        <v>0.4233259107972328</v>
+        <v>0.2299953477621856</v>
       </c>
       <c r="Q8">
-        <v>340.9315123446088</v>
+        <v>81.18169943796822</v>
       </c>
       <c r="R8">
-        <v>3068.38361110148</v>
+        <v>730.6352949417141</v>
       </c>
       <c r="S8">
-        <v>0.07324905652780345</v>
+        <v>0.04526339694926783</v>
       </c>
       <c r="T8">
-        <v>0.07324905652780346</v>
+        <v>0.04526339694926785</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>11.86914966666667</v>
+        <v>7.845451333333334</v>
       </c>
       <c r="H9">
-        <v>35.607449</v>
+        <v>23.536354</v>
       </c>
       <c r="I9">
-        <v>0.1730323012589908</v>
+        <v>0.1968013587651783</v>
       </c>
       <c r="J9">
-        <v>0.1730323012589908</v>
+        <v>0.1968013587651783</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>91.709587</v>
       </c>
       <c r="O9">
-        <v>0.4505269713084062</v>
+        <v>0.6794731949692173</v>
       </c>
       <c r="P9">
-        <v>0.4505269713084062</v>
+        <v>0.6794731949692174</v>
       </c>
       <c r="Q9">
-        <v>362.8382713237292</v>
+        <v>239.8343672028665</v>
       </c>
       <c r="R9">
-        <v>3265.544441913563</v>
+        <v>2158.509304825798</v>
       </c>
       <c r="S9">
-        <v>0.07795571862473685</v>
+        <v>0.1337212480144589</v>
       </c>
       <c r="T9">
-        <v>0.07795571862473687</v>
+        <v>0.1337212480144589</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>11.86914966666667</v>
+        <v>7.845451333333334</v>
       </c>
       <c r="H10">
-        <v>35.607449</v>
+        <v>23.536354</v>
       </c>
       <c r="I10">
-        <v>0.1730323012589908</v>
+        <v>0.1968013587651783</v>
       </c>
       <c r="J10">
-        <v>0.1730323012589908</v>
+        <v>0.1968013587651783</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.559531999999999</v>
+        <v>4.073058666666666</v>
       </c>
       <c r="N10">
-        <v>25.678596</v>
+        <v>12.219176</v>
       </c>
       <c r="O10">
-        <v>0.126147117894361</v>
+        <v>0.09053145726859702</v>
       </c>
       <c r="P10">
-        <v>0.126147117894361</v>
+        <v>0.09053145726859703</v>
       </c>
       <c r="Q10">
-        <v>101.5943663846227</v>
+        <v>31.95498354714489</v>
       </c>
       <c r="R10">
-        <v>914.349297461604</v>
+        <v>287.594851924304</v>
       </c>
       <c r="S10">
-        <v>0.0218275261064505</v>
+        <v>0.01781671380145157</v>
       </c>
       <c r="T10">
-        <v>0.0218275261064505</v>
+        <v>0.01781671380145158</v>
       </c>
     </row>
   </sheetData>
